--- a/check.xlsx
+++ b/check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelfomin/Desktop/Netology/Diplom/diplom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2510ED-F934-3F48-AEFF-7BD05ED4C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D85870-BAFA-8149-9B7B-A08CBC1615D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Проверка верстки всех экранов приложения в альбомном режиме</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка доступности всех имеющихся на экранах элементов управления </t>
-  </si>
-  <si>
     <t>Функциональное тестирование</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
   </si>
   <si>
     <t>Неуспешная аутентификация в приложении с невалидным логином и(или) паролем рядового пользователя</t>
-  </si>
-  <si>
-    <t>Проверка функционала редактирования новости каждого типа и отображения измененой новости в заданное время в учетной записи администратора</t>
-  </si>
-  <si>
-    <t>Проверка функционала редактирования новости каждого типа и последующего отображения изменений в учетной записи рядового пользователя</t>
   </si>
   <si>
     <t>Проверка полей ввода формы добавления/редактирования новости на невалидные данные</t>
@@ -309,6 +300,18 @@
   <si>
     <t>Проверка удаления новости и отображения соответствующих изменений в списке новостей в учетной записи рядового пользователя</t>
   </si>
+  <si>
+    <t>Проверка функционала редактирования новости и отображения измененой новости в списке новостей</t>
+  </si>
+  <si>
+    <t>Проверка функционала редактирования новости и последующего отображения изменений в учетной записи рядового пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка доступности всех экранов и имеющихся на них элементов управления </t>
+  </si>
+  <si>
+    <t>Проверка кнопки выхода из аккаунта</t>
+  </si>
 </sst>
 </file>
 
@@ -496,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +565,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,11 +819,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1006"/>
+  <dimension ref="A1:W1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -839,13 +851,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -875,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
@@ -908,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
@@ -941,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="9">
         <v>24</v>
@@ -974,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="9">
         <v>24</v>
@@ -1007,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
@@ -1036,19 +1048,19 @@
     <row r="7" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="9">
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
@@ -1077,12 +1089,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1110,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="9">
         <v>25</v>
@@ -1143,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="9">
         <v>26</v>
@@ -1178,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1209,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="9">
         <v>5</v>
@@ -1244,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1275,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1300,13 +1312,13 @@
     <row r="15" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9">
         <v>6</v>
@@ -1335,18 +1347,18 @@
     <row r="16" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="23"/>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1367,16 +1379,16 @@
     </row>
     <row r="17" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1401,20 +1413,20 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1434,15 +1446,15 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9">
         <v>7</v>
@@ -1467,20 +1479,20 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1500,15 +1512,15 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="9">
         <v>8</v>
@@ -1535,15 +1547,15 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" s="9">
         <v>9</v>
@@ -1568,15 +1580,15 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E23" s="9">
         <v>10</v>
@@ -1603,15 +1615,15 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="9">
         <v>11</v>
@@ -1637,18 +1649,20 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="E25" s="9">
+        <v>27</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
@@ -1668,21 +1682,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="42" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1702,15 +1716,15 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="9">
         <v>12</v>
@@ -1735,15 +1749,15 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E28" s="9">
         <v>13</v>
@@ -1770,15 +1784,15 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E29" s="9">
         <v>14</v>
@@ -1805,15 +1819,15 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="9">
         <v>25</v>
@@ -1838,20 +1852,20 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1871,15 +1885,15 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E32" s="9">
         <v>6</v>
@@ -1906,15 +1920,15 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E33" s="9">
         <v>6</v>
@@ -1941,20 +1955,20 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1974,20 +1988,20 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2007,15 +2021,15 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E36" s="9">
         <v>15</v>
@@ -2042,17 +2056,19 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="E37" s="9">
+        <v>29</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
@@ -2073,15 +2089,15 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E38" s="9">
         <v>16</v>
@@ -2108,20 +2124,20 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2141,20 +2157,20 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2174,17 +2190,19 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="E41" s="9">
+        <v>28</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4"/>
       <c r="H41" s="1"/>
@@ -2205,20 +2223,20 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2237,24 +2255,22 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A43" s="21" t="s">
-        <v>87</v>
-      </c>
+    <row r="43" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="26"/>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="9">
+        <v>30</v>
+      </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="24" t="s">
-        <v>88</v>
-      </c>
+      <c r="G43" s="27"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2273,19 +2289,23 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2306,13 +2326,13 @@
     <row r="45" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="22"/>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -2337,13 +2357,13 @@
     <row r="46" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="22"/>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -2366,15 +2386,15 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -2397,25 +2417,19 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A48" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="A48" s="23"/>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="9">
-        <v>17</v>
-      </c>
-      <c r="F48" s="9">
-        <v>14</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2434,21 +2448,23 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E49" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="1"/>
@@ -2468,22 +2484,22 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E50" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1"/>
@@ -2503,19 +2519,23 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="E51" s="9">
+        <v>19</v>
+      </c>
+      <c r="F51" s="9">
+        <v>16</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2537,13 +2557,13 @@
     <row r="52" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2565,16 +2585,16 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -2596,16 +2616,16 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -2628,15 +2648,15 @@
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -2659,23 +2679,19 @@
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A56" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="A56" s="23"/>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2694,20 +2710,22 @@
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2729,18 +2747,18 @@
     <row r="58" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2759,21 +2777,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="42" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2792,21 +2810,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2828,18 +2846,18 @@
     <row r="61" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2858,21 +2876,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
+    <row r="62" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+      <c r="A62" s="22"/>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2891,26 +2909,22 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A63" s="21" t="s">
-        <v>60</v>
-      </c>
+    <row r="63" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="23"/>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="9">
-        <v>20</v>
-      </c>
-      <c r="F63" s="9">
-        <v>17</v>
-      </c>
-      <c r="G63" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2929,21 +2943,23 @@
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
+      <c r="A64" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E64" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F64" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="1"/>
@@ -2964,20 +2980,22 @@
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="9">
-        <v>22</v>
-      </c>
-      <c r="F65" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F65" s="9">
+        <v>18</v>
+      </c>
       <c r="G65" s="4"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2996,20 +3014,20 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
-        <v>62</v>
-      </c>
+    <row r="66" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+      <c r="A66" s="23"/>
       <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <v>22</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="4"/>
       <c r="H66" s="1"/>
@@ -3029,22 +3047,22 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="28" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
+    <row r="67" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3062,22 +3080,22 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="23"/>
+    <row r="68" spans="1:23" ht="28" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="9">
-        <v>23</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="4"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3095,12 +3113,20 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="9"/>
+    <row r="69" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="23"/>
+      <c r="B69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="9">
+        <v>23</v>
+      </c>
       <c r="F69" s="9"/>
       <c r="G69" s="4"/>
       <c r="H69" s="1"/>
@@ -26545,20 +26571,45 @@
       <c r="V1006" s="1"/>
       <c r="W1006" s="1"/>
     </row>
+    <row r="1007" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1007" s="4"/>
+      <c r="B1007" s="5"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="9"/>
+      <c r="F1007" s="9"/>
+      <c r="G1007" s="4"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A17:A43"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A57:A63"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A17:A42"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A56"/>
     <mergeCell ref="A11:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D68">
+  <conditionalFormatting sqref="D2:D69">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",D2)))</formula>
     </cfRule>
@@ -26567,10 +26618,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D68" xr:uid="{CC627BA9-4ADB-0B48-ABDA-BDA90B30B34E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D69" xr:uid="{CC627BA9-4ADB-0B48-ABDA-BDA90B30B34E}">
       <formula1>"pass,fail"</formula1>
     </dataValidation>
   </dataValidations>
